--- a/result.xlsx
+++ b/result.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rongpengzheng/Downloads/machine_learning_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED87B27-F499-2E43-AD7B-D179D8C57639}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43F46A3-9EC7-A74D-A3D3-CFDA0B31F254}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7720" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{F535F11D-39DC-E244-BDEF-3CD6FFF6F5AA}"/>
+    <workbookView xWindow="8340" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{F535F11D-39DC-E244-BDEF-3CD6FFF6F5AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="179017" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="17">
   <si>
     <t>Peaceful</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>class sum, truth</t>
+  </si>
+  <si>
+    <t>Third experiment</t>
+  </si>
+  <si>
+    <t>First experiment</t>
+  </si>
+  <si>
+    <t>Second experiment</t>
   </si>
 </sst>
 </file>
@@ -419,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B42F7E-2719-3D49-9560-269F648E9488}">
-  <dimension ref="A5:Q47"/>
+  <dimension ref="A4:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="102" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -431,6 +440,14 @@
     <col min="10" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
@@ -641,7 +658,7 @@
         <v>234</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:G13" si="0">SUM(B12:F12)</f>
+        <f t="shared" ref="G12" si="0">SUM(B12:F12)</f>
         <v>1275</v>
       </c>
       <c r="J12" t="s">
@@ -1163,6 +1180,11 @@
         <v>0.41532258064516131</v>
       </c>
     </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>9</v>
@@ -1188,19 +1210,19 @@
         <v>5</v>
       </c>
       <c r="B29" s="1">
-        <v>0.53169014084507005</v>
+        <v>0.52982456140350798</v>
       </c>
       <c r="C29" s="1">
-        <v>0.43462897526501698</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="D29" s="1">
-        <v>0.43824701195219101</v>
+        <v>0.35087719298245601</v>
       </c>
       <c r="E29" s="1">
-        <v>0.44</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="F29" s="1">
-        <v>0.43534482758620602</v>
+        <v>0.446009389671361</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -1208,19 +1230,19 @@
         <v>6</v>
       </c>
       <c r="B30" s="1">
-        <v>0.51851851851851805</v>
+        <v>0.49300699300699302</v>
       </c>
       <c r="C30" s="1">
-        <v>0.43656716417910402</v>
+        <v>0.5</v>
       </c>
       <c r="D30" s="1">
-        <v>0.43076923076923002</v>
+        <v>0.308243727598566</v>
       </c>
       <c r="E30" s="1">
-        <v>0.43693693693693603</v>
+        <v>0.40329218106995801</v>
       </c>
       <c r="F30" s="1">
-        <v>0.39912280701754299</v>
+        <v>0.415584415584415</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -1248,19 +1270,19 @@
         <v>8</v>
       </c>
       <c r="B32" s="1">
-        <v>0.54607508532423199</v>
+        <v>0.53310104529616698</v>
       </c>
       <c r="C32" s="1">
-        <v>0.43071161048689099</v>
+        <v>0.467811158798283</v>
       </c>
       <c r="D32" s="1">
-        <v>0.43893129770992301</v>
+        <v>0.35185185185185103</v>
       </c>
       <c r="E32" s="1">
-        <v>0.45454545454545398</v>
+        <v>0.40243902439024298</v>
       </c>
       <c r="F32" s="1">
-        <v>0.40540540540540498</v>
+        <v>0.414225941422594</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1268,19 +1290,19 @@
         <v>13</v>
       </c>
       <c r="B35">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C35">
+        <v>264</v>
+      </c>
+      <c r="D35">
         <v>250</v>
       </c>
-      <c r="D35">
-        <v>264</v>
-      </c>
       <c r="E35">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="F35">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="G35">
         <f t="shared" ref="G35" si="12">SUM(B35:F35)</f>
@@ -1321,24 +1343,24 @@
         <v>151</v>
       </c>
       <c r="C37">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D37">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E37">
         <v>99</v>
       </c>
       <c r="F37">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G37">
         <f>SUM(B37:F37)</f>
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="H37" s="1">
         <f>G37/G35</f>
-        <v>0.45803921568627454</v>
+        <v>0.43843137254901959</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -1346,27 +1368,27 @@
         <v>6</v>
       </c>
       <c r="B38">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C38">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="E38">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F38">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G38">
         <f t="shared" ref="G38:G40" si="13">SUM(B38:F38)</f>
-        <v>571</v>
+        <v>539</v>
       </c>
       <c r="H38" s="1">
         <f>G38/G35</f>
-        <v>0.44784313725490194</v>
+        <v>0.42274509803921567</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -1374,27 +1396,27 @@
         <v>7</v>
       </c>
       <c r="B39">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C39">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D39">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="E39">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F39">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G39">
         <f t="shared" si="13"/>
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="H39" s="1">
         <f>G39/G35</f>
-        <v>0.45882352941176469</v>
+        <v>0.43529411764705883</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -1402,27 +1424,27 @@
         <v>8</v>
       </c>
       <c r="B40">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C40">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D40">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="E40">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F40">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G40">
         <f t="shared" si="13"/>
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="H40" s="1">
         <f>G40/G35</f>
-        <v>0.45882352941176469</v>
+        <v>0.43529411764705883</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -1451,23 +1473,23 @@
       </c>
       <c r="B44" s="1">
         <f>B37/B35</f>
-        <v>0.57633587786259544</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" ref="C44:F44" si="14">C37/C35</f>
-        <v>0.49199999999999999</v>
+        <v>0.43181818181818182</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="14"/>
-        <v>0.41666666666666669</v>
+        <v>0.4</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="14"/>
-        <v>0.37358490566037733</v>
+        <v>0.38976377952755903</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="14"/>
-        <v>0.43162393162393164</v>
+        <v>0.36964980544747084</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -1476,23 +1498,23 @@
       </c>
       <c r="B45" s="1">
         <f>B38/B35</f>
-        <v>0.58778625954198471</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" ref="C45:F45" si="15">C38/C35</f>
-        <v>0.46800000000000003</v>
+        <v>0.44696969696969696</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="15"/>
-        <v>0.42424242424242425</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="E45" s="1">
         <f t="shared" si="15"/>
-        <v>0.36603773584905658</v>
+        <v>0.38582677165354329</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="15"/>
-        <v>0.3888888888888889</v>
+        <v>0.37354085603112841</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -1501,23 +1523,23 @@
       </c>
       <c r="B46" s="1">
         <f>B39/B35</f>
-        <v>0.61068702290076338</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" ref="C46:F46" si="16">C39/C35</f>
-        <v>0.46</v>
+        <v>0.4128787878787879</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="16"/>
-        <v>0.43560606060606061</v>
+        <v>0.38</v>
       </c>
       <c r="E46" s="1">
         <f t="shared" si="16"/>
-        <v>0.39622641509433965</v>
+        <v>0.38976377952755903</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="16"/>
-        <v>0.38461538461538464</v>
+        <v>0.38521400778210119</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -1526,23 +1548,23 @@
       </c>
       <c r="B47" s="1">
         <f>B40/B35</f>
-        <v>0.61068702290076338</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" ref="C47:E47" si="17">C40/C35</f>
-        <v>0.46</v>
+        <v>0.4128787878787879</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="17"/>
-        <v>0.43560606060606061</v>
+        <v>0.38</v>
       </c>
       <c r="E47" s="1">
         <f t="shared" si="17"/>
-        <v>0.39622641509433965</v>
+        <v>0.38976377952755903</v>
       </c>
       <c r="F47" s="1">
         <f>F40/F35</f>
-        <v>0.38461538461538464</v>
+        <v>0.38521400778210119</v>
       </c>
     </row>
   </sheetData>
